--- a/examples/XlsxPeasant_05_styles.xlsx
+++ b/examples/XlsxPeasant_05_styles.xlsx
@@ -1,42 +1,29 @@
 
-<file path=docProps\app.xml><?xml version="1.0" encoding="utf-8"?>
-<Properties xmlns="http://schemas.openxmlformats.org/officeDocument/2006/extended-properties" xmlns:vt="http://schemas.openxmlformats.org/officeDocument/2006/docPropsVTypes">
-  <Application>Microsoft Excel</Application>
-  <DocSecurity>0</DocSecurity>
-  <ScaleCrop>false</ScaleCrop>
-  <HeadingPairs>
-    <vt:vector size="2" baseType="variant">
-      <vt:variant>
-        <vt:lpstr>Arkusze</vt:lpstr>
-      </vt:variant>
-      <vt:variant>
-        <vt:i4>1</vt:i4>
-      </vt:variant>
-    </vt:vector>
-  </HeadingPairs>
-  <TitlesOfParts>
-    <vt:vector size="1" baseType="lpstr">
-      <vt:lpstr>Styles Test</vt:lpstr>
-    </vt:vector>
-  </TitlesOfParts>
-  <Company/>
-  <LinksUpToDate>false</LinksUpToDate>
-  <SharedDoc>false</SharedDoc>
-  <HyperlinksChanged>false</HyperlinksChanged>
-  <AppVersion>16.0300</AppVersion>
-</Properties>
+<file path=xl/workbook.xml><?xml version="1.0" encoding="utf-8"?>
+<workbook xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x15="http://schemas.microsoft.com/office/spreadsheetml/2010/11/main" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr6="http://schemas.microsoft.com/office/spreadsheetml/2016/revision6" xmlns:xr10="http://schemas.microsoft.com/office/spreadsheetml/2016/revision10" xmlns:xr2="http://schemas.microsoft.com/office/spreadsheetml/2015/revision2" mc:Ignorable="x15 xr xr6 xr10 xr2">
+  <fileVersion appName="xl" lastEdited="7" lowestEdited="7" rupBuild="21425"/>
+  <workbookPr defaultThemeVersion="166925"/>
+  <mc:AlternateContent xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006">
+    <mc:Choice Requires="x15">
+      <x15ac:absPath xmlns:x15ac="http://schemas.microsoft.com/office/spreadsheetml/2010/11/ac" url="\"/>
+    </mc:Choice>
+  </mc:AlternateContent>
+  <bookViews>
+    <workbookView xWindow="-108" yWindow="-108" windowWidth="23256" windowHeight="12576" xr2:uid="{1DA762AD-7C25-487E-83A6-EDAF663DE464}"/>
+  </bookViews>
+  <sheets>
+    <sheet name="Styles Test" sheetId="1" r:id="rId1"/>
+  </sheets>
+  <calcPr calcId="191029"/>
+  <extLst>
+    <ext xmlns:x15="http://schemas.microsoft.com/office/spreadsheetml/2010/11/main" uri="{140A7094-0E35-4892-8432-C4D2E57EDEB5}">
+      <x15:workbookPr chartTrackingRefBase="1"/>
+    </ext>
+  </extLst>
+</workbook>
 </file>
 
-<file path=docProps\core.xml><?xml version="1.0" encoding="utf-8"?>
-<cp:coreProperties xmlns:cp="http://schemas.openxmlformats.org/package/2006/metadata/core-properties" xmlns:dc="http://purl.org/dc/elements/1.1/" xmlns:dcterms="http://purl.org/dc/terms/" xmlns:dcmitype="http://purl.org/dc/dcmitype/" xmlns:xsi="http://www.w3.org/2001/XMLSchema-instance">
-  <dc:creator>Karol Nowakowski</dc:creator>
-  <cp:lastModifiedBy>Karol Nowakowski</cp:lastModifiedBy>
-  <dcterms:created xsi:type="dcterms:W3CDTF">2019-04-23T10:00:38Z</dcterms:created>
-  <dcterms:modified xsi:type="dcterms:W3CDTF">2019-04-23T10:00:47Z</dcterms:modified>
-</cp:coreProperties>
-</file>
-
-<file path=xl\sharedStrings.xml><?xml version="1.0" encoding="utf-8"?>
+<file path=xl/sharedStrings.xml><?xml version="1.0" encoding="utf-8"?>
 <sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="28" uniqueCount="28">
   <si>
     <t>Change default settings</t>
@@ -148,8 +135,11 @@
 </sst>
 </file>
 
-<file path=xl\styles.xml><?xml version="1.0" encoding="utf-8"?>
+<file path=xl/styles.xml><?xml version="1.0" encoding="utf-8"?>
 <styleSheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" xmlns:x16r2="http://schemas.microsoft.com/office/spreadsheetml/2015/02/main" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" mc:Ignorable="x14ac x16r2 xr">
+  <numFmts count="1">
+    <numFmt formatCode="#,##0\ &quot;zł&quot;;\-#,##0\ &quot;zł&quot;" numFmtId="5"/>
+  </numFmts>
   <fonts count="10" x14ac:knownFonts="1">
     <font>
       <sz val="19"/>
@@ -273,48 +263,48 @@
   <cellXfs count="22">
     <xf borderId="0" fillId="0" fontId="0" numFmtId="0" xfId="0"/>
     <xf applyFont="1" borderId="0" fillId="0" fontId="1" numFmtId="0" xfId="0"/>
-    <xf applyAlignment="0" applyFill="1" borderId="0" fillId="2" fontId="1" numFmtId="5" xfId="0" applyFont="1"/>
-    <xf applyAlignment="1" applyFill="0" borderId="0" fillId="0" fontId="1" numFmtId="5" xfId="0" applyFont="1">
+    <xf applyAlignment="0" applyFill="1" applyFont="1" applyNumberFormat="0" borderId="0" fillId="2" fontId="1" numFmtId="0" xfId="0"/>
+    <xf applyAlignment="1" applyFill="0" applyFont="1" applyNumberFormat="0" borderId="0" fillId="0" fontId="1" numFmtId="0" xfId="0">
       <alignment wrapText="1" horizontal="left" vertical="top"/>
     </xf>
-    <xf applyAlignment="1" applyFill="0" borderId="0" fillId="0" fontId="1" numFmtId="5" xfId="0" applyFont="1">
+    <xf applyAlignment="1" applyFill="0" applyFont="1" applyNumberFormat="0" borderId="0" fillId="0" fontId="1" numFmtId="0" xfId="0">
       <alignment wrapText="1" horizontal="center" vertical="top"/>
     </xf>
-    <xf applyAlignment="1" applyFill="0" borderId="0" fillId="0" fontId="1" numFmtId="5" xfId="0" applyFont="1">
+    <xf applyAlignment="1" applyFill="0" applyFont="1" applyNumberFormat="0" borderId="0" fillId="0" fontId="1" numFmtId="0" xfId="0">
       <alignment wrapText="1" horizontal="right" vertical="top"/>
     </xf>
-    <xf applyAlignment="1" applyFill="0" borderId="0" fillId="0" fontId="1" numFmtId="5" xfId="0" applyFont="1">
+    <xf applyAlignment="1" applyFill="0" applyFont="1" applyNumberFormat="0" borderId="0" fillId="0" fontId="1" numFmtId="0" xfId="0">
       <alignment wrapText="1" horizontal="left" vertical="center"/>
     </xf>
-    <xf applyAlignment="1" applyFill="0" borderId="0" fillId="0" fontId="1" numFmtId="5" xfId="0" applyFont="1">
+    <xf applyAlignment="1" applyFill="0" applyFont="1" applyNumberFormat="0" borderId="0" fillId="0" fontId="1" numFmtId="0" xfId="0">
       <alignment wrapText="1" horizontal="center" vertical="center"/>
     </xf>
-    <xf applyAlignment="1" applyFill="0" borderId="0" fillId="0" fontId="1" numFmtId="5" xfId="0" applyFont="1">
+    <xf applyAlignment="1" applyFill="0" applyFont="1" applyNumberFormat="0" borderId="0" fillId="0" fontId="1" numFmtId="0" xfId="0">
       <alignment wrapText="1" horizontal="right" vertical="center"/>
     </xf>
-    <xf applyAlignment="1" applyFill="0" borderId="0" fillId="0" fontId="1" numFmtId="5" xfId="0" applyFont="1">
+    <xf applyAlignment="1" applyFill="0" applyFont="1" applyNumberFormat="0" borderId="0" fillId="0" fontId="1" numFmtId="0" xfId="0">
       <alignment wrapText="1" horizontal="left" vertical="bottom"/>
     </xf>
-    <xf applyAlignment="1" applyFill="0" borderId="0" fillId="0" fontId="1" numFmtId="5" xfId="0" applyFont="1">
+    <xf applyAlignment="1" applyFill="0" applyFont="1" applyNumberFormat="0" borderId="0" fillId="0" fontId="1" numFmtId="0" xfId="0">
       <alignment wrapText="1" horizontal="center" vertical="bottom"/>
     </xf>
-    <xf applyAlignment="1" applyFill="0" borderId="0" fillId="0" fontId="1" numFmtId="5" xfId="0" applyFont="1">
+    <xf applyAlignment="1" applyFill="0" applyFont="1" applyNumberFormat="0" borderId="0" fillId="0" fontId="1" numFmtId="0" xfId="0">
       <alignment wrapText="1" horizontal="right" vertical="bottom"/>
     </xf>
-    <xf applyAlignment="0" applyFill="0" borderId="0" fillId="0" fontId="2" numFmtId="5" xfId="0" applyFont="1"/>
-    <xf applyAlignment="0" applyFill="0" borderId="0" fillId="0" fontId="3" numFmtId="5" xfId="0" applyFont="1"/>
-    <xf applyAlignment="0" applyFill="0" borderId="0" fillId="0" fontId="4" numFmtId="5" xfId="0" applyFont="1"/>
-    <xf applyAlignment="0" applyFill="0" borderId="0" fillId="0" fontId="5" numFmtId="5" xfId="0" applyFont="1"/>
-    <xf applyAlignment="0" applyFill="0" borderId="0" fillId="0" fontId="6" numFmtId="5" xfId="0" applyFont="1"/>
-    <xf applyAlignment="0" applyFill="0" borderId="0" fillId="0" fontId="7" numFmtId="5" xfId="0" applyFont="1"/>
-    <xf applyAlignment="0" applyFill="0" borderId="0" fillId="0" fontId="8" numFmtId="5" xfId="0" applyFont="1"/>
-    <xf applyAlignment="1" applyFill="0" borderId="0" fillId="0" fontId="1" numFmtId="5" xfId="0" applyFont="1">
+    <xf applyAlignment="0" applyFill="0" applyFont="1" applyNumberFormat="0" borderId="0" fillId="0" fontId="2" numFmtId="0" xfId="0"/>
+    <xf applyAlignment="0" applyFill="0" applyFont="1" applyNumberFormat="0" borderId="0" fillId="0" fontId="3" numFmtId="0" xfId="0"/>
+    <xf applyAlignment="0" applyFill="0" applyFont="1" applyNumberFormat="0" borderId="0" fillId="0" fontId="4" numFmtId="0" xfId="0"/>
+    <xf applyAlignment="0" applyFill="0" applyFont="1" applyNumberFormat="0" borderId="0" fillId="0" fontId="5" numFmtId="0" xfId="0"/>
+    <xf applyAlignment="0" applyFill="0" applyFont="1" applyNumberFormat="0" borderId="0" fillId="0" fontId="6" numFmtId="0" xfId="0"/>
+    <xf applyAlignment="0" applyFill="0" applyFont="1" applyNumberFormat="0" borderId="0" fillId="0" fontId="7" numFmtId="0" xfId="0"/>
+    <xf applyAlignment="0" applyFill="0" applyFont="1" applyNumberFormat="0" borderId="0" fillId="0" fontId="8" numFmtId="0" xfId="0"/>
+    <xf applyAlignment="1" applyFill="0" applyFont="1" applyNumberFormat="0" borderId="0" fillId="0" fontId="1" numFmtId="0" xfId="0">
       <alignment wrapText="0"/>
     </xf>
-    <xf applyAlignment="1" applyFill="0" borderId="0" fillId="0" fontId="1" numFmtId="5" xfId="0" applyFont="1">
+    <xf applyAlignment="1" applyFill="0" applyFont="1" applyNumberFormat="0" borderId="0" fillId="0" fontId="1" numFmtId="0" xfId="0">
       <alignment wrapText="1"/>
     </xf>
-    <xf applyAlignment="0" applyFill="1" borderId="0" fillId="3" fontId="9" numFmtId="5" xfId="0" applyFont="1"/>
+    <xf applyAlignment="0" applyFill="1" applyFont="1" applyNumberFormat="0" borderId="0" fillId="3" fontId="9" numFmtId="0" xfId="0"/>
   </cellXfs>
   <cellStyles count="1">
     <cellStyle name="Normalny" xfId="0" builtinId="0"/>
@@ -332,7 +322,7 @@
 </styleSheet>
 </file>
 
-<file path=xl\theme\theme1.xml><?xml version="1.0" encoding="utf-8"?>
+<file path=xl/theme/theme1.xml><?xml version="1.0" encoding="utf-8"?>
 <a:theme xmlns:a="http://schemas.openxmlformats.org/drawingml/2006/main" name="Motyw pakietu Office">
   <a:themeElements>
     <a:clrScheme name="Pakiet Office">
@@ -627,33 +617,8 @@
 </a:theme>
 </file>
 
-<file path=xl\workbook.xml><?xml version="1.0" encoding="utf-8"?>
-<workbook xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x15="http://schemas.microsoft.com/office/spreadsheetml/2010/11/main" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr6="http://schemas.microsoft.com/office/spreadsheetml/2016/revision6" xmlns:xr10="http://schemas.microsoft.com/office/spreadsheetml/2016/revision10" xmlns:xr2="http://schemas.microsoft.com/office/spreadsheetml/2015/revision2" mc:Ignorable="x15 xr xr6 xr10 xr2">
-  <fileVersion appName="xl" lastEdited="7" lowestEdited="7" rupBuild="21425"/>
-  <workbookPr defaultThemeVersion="166925"/>
-  <mc:AlternateContent xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006">
-    <mc:Choice Requires="x15">
-      <x15ac:absPath xmlns:x15ac="http://schemas.microsoft.com/office/spreadsheetml/2010/11/ac" url="C:\Users\knowakowski\Desktop\"/>
-    </mc:Choice>
-  </mc:AlternateContent>
-  <xr:revisionPtr revIDLastSave="0" documentId="8_{A31A1446-E08E-47BC-8584-29124A2247F2}" xr6:coauthVersionLast="43" xr6:coauthVersionMax="43" xr10:uidLastSave="{00000000-0000-0000-0000-000000000000}"/>
-  <bookViews>
-    <workbookView xWindow="-108" yWindow="-108" windowWidth="23256" windowHeight="12576" xr2:uid="{1DA762AD-7C25-487E-83A6-EDAF663DE464}"/>
-  </bookViews>
-  <sheets>
-    <sheet name="Styles Test" sheetId="1" r:id="rId1"/>
-  </sheets>
-  <calcPr calcId="191029"/>
-  <extLst>
-    <ext xmlns:x15="http://schemas.microsoft.com/office/spreadsheetml/2010/11/main" uri="{140A7094-0E35-4892-8432-C4D2E57EDEB5}">
-      <x15:workbookPr chartTrackingRefBase="1"/>
-    </ext>
-  </extLst>
-</workbook>
-</file>
-
-<file path=xl\worksheets\sheet1.xml><?xml version="1.0" encoding="utf-8"?>
-<worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr2="http://schemas.microsoft.com/office/spreadsheetml/2015/revision2" xmlns:xr3="http://schemas.microsoft.com/office/spreadsheetml/2016/revision3" mc:Ignorable="x14ac xr xr2 xr3" xr:uid="{97588D23-AED5-4E14-A730-4238461307BE}">
+<file path=xl/worksheets/sheet1.xml><?xml version="1.0" encoding="utf-8"?>
+<worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr2="http://schemas.microsoft.com/office/spreadsheetml/2015/revision2" xmlns:xr3="http://schemas.microsoft.com/office/spreadsheetml/2016/revision3" mc:Ignorable="x14ac xr xr2 xr3" xr:uid="{C7B3EEBA-B115-4E27-8478-F5F59EB4E323}">
   <dimension ref="A1:G22"/>
   <sheetViews>
     <sheetView workbookViewId="0"/>

--- a/examples/XlsxPeasant_05_styles.xlsx
+++ b/examples/XlsxPeasant_05_styles.xlsx
@@ -24,7 +24,7 @@
 </file>
 
 <file path=xl/sharedStrings.xml><?xml version="1.0" encoding="utf-8"?>
-<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="28" uniqueCount="28">
+<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="35" uniqueCount="35">
   <si>
     <t>Change default settings</t>
   </si>
@@ -130,6 +130,27 @@
     <t>Courier New, 15, black, bold, italic, underline; Fill 68;114;196.</t>
   </si>
   <si>
+    <t>Formats</t>
+  </si>
+  <si>
+    <t>date:</t>
+  </si>
+  <si>
+    <t>unit:</t>
+  </si>
+  <si>
+    <t>currency:</t>
+  </si>
+  <si>
+    <t>percentage:</t>
+  </si>
+  <si>
+    <t>hidden:</t>
+  </si>
+  <si>
+    <t>hidden</t>
+  </si>
+  <si>
     <t>This Cell is as defaults show.</t>
   </si>
 </sst>
@@ -137,8 +158,13 @@
 
 <file path=xl/styles.xml><?xml version="1.0" encoding="utf-8"?>
 <styleSheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" xmlns:x16r2="http://schemas.microsoft.com/office/spreadsheetml/2015/02/main" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" mc:Ignorable="x14ac x16r2 xr">
-  <numFmts count="1">
+  <numFmts count="6">
     <numFmt formatCode="#,##0\ &quot;zł&quot;;\-#,##0\ &quot;zł&quot;" numFmtId="5"/>
+    <numFmt formatCode="yyyy\-mm\-dd;@" numFmtId="1"/>
+    <numFmt formatCode="#,##0\ &quot;szt.&quot; ;-#,##0\ &quot;szt.&quot; " numFmtId="2"/>
+    <numFmt formatCode="#,##0.00\ &quot;zł&quot; ;-#,##0.00\ &quot;zł&quot; " numFmtId="3"/>
+    <numFmt formatCode="#,##0.00\ &quot;%&quot; ;-#,##0.00\ &quot;%&quot; " numFmtId="4"/>
+    <numFmt formatCode=";;;" numFmtId="5"/>
   </numFmts>
   <fonts count="10" x14ac:knownFonts="1">
     <font>
@@ -260,7 +286,7 @@
   <cellStyleXfs count="1">
     <xf numFmtId="0" fontId="0" fillId="0" borderId="0"/>
   </cellStyleXfs>
-  <cellXfs count="22">
+  <cellXfs count="27">
     <xf borderId="0" fillId="0" fontId="0" numFmtId="0" xfId="0"/>
     <xf applyFont="1" borderId="0" fillId="0" fontId="1" numFmtId="0" xfId="0"/>
     <xf applyAlignment="0" applyFill="1" applyFont="1" applyNumberFormat="0" borderId="0" fillId="2" fontId="1" numFmtId="0" xfId="0"/>
@@ -305,6 +331,11 @@
       <alignment wrapText="1"/>
     </xf>
     <xf applyAlignment="0" applyFill="1" applyFont="1" applyNumberFormat="0" borderId="0" fillId="3" fontId="9" numFmtId="0" xfId="0"/>
+    <xf applyAlignment="0" applyFill="0" applyFont="1" applyNumberFormat="1" borderId="0" fillId="0" fontId="1" numFmtId="1" xfId="0"/>
+    <xf applyAlignment="0" applyFill="0" applyFont="1" applyNumberFormat="1" borderId="0" fillId="0" fontId="1" numFmtId="2" xfId="0"/>
+    <xf applyAlignment="0" applyFill="0" applyFont="1" applyNumberFormat="1" borderId="0" fillId="0" fontId="1" numFmtId="3" xfId="0"/>
+    <xf applyAlignment="0" applyFill="0" applyFont="1" applyNumberFormat="1" borderId="0" fillId="0" fontId="1" numFmtId="4" xfId="0"/>
+    <xf applyAlignment="0" applyFill="0" applyFont="1" applyNumberFormat="1" borderId="0" fillId="0" fontId="1" numFmtId="5" xfId="0"/>
   </cellXfs>
   <cellStyles count="1">
     <cellStyle name="Normalny" xfId="0" builtinId="0"/>
@@ -618,8 +649,8 @@
 </file>
 
 <file path=xl/worksheets/sheet1.xml><?xml version="1.0" encoding="utf-8"?>
-<worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr2="http://schemas.microsoft.com/office/spreadsheetml/2015/revision2" xmlns:xr3="http://schemas.microsoft.com/office/spreadsheetml/2016/revision3" mc:Ignorable="x14ac xr xr2 xr3" xr:uid="{C7B3EEBA-B115-4E27-8478-F5F59EB4E323}">
-  <dimension ref="A1:G22"/>
+<worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr2="http://schemas.microsoft.com/office/spreadsheetml/2015/revision2" xmlns:xr3="http://schemas.microsoft.com/office/spreadsheetml/2016/revision3" mc:Ignorable="x14ac xr xr2 xr3" xr:uid="{25907D95-7D2E-4A85-AAE0-BC9699941223}">
+  <dimension ref="A1:G30"/>
   <sheetViews>
     <sheetView workbookViewId="0"/>
   </sheetViews>
@@ -741,9 +772,54 @@
         <v>26</v>
       </c>
     </row>
-    <row r="22" spans="1:1" x14ac:dyDescent="0.3">
-      <c r="A22" s="1" t="s">
+    <row r="23" spans="1:1" x14ac:dyDescent="0.3">
+      <c r="A23" s="2" t="s">
         <v>27</v>
+      </c>
+    </row>
+    <row r="24" spans="1:2" x14ac:dyDescent="0.3">
+      <c r="A24" s="1" t="s">
+        <v>28</v>
+      </c>
+      <c r="B24" s="22">
+        <v>43466</v>
+      </c>
+    </row>
+    <row r="25" spans="1:2" x14ac:dyDescent="0.3">
+      <c r="A25" s="1" t="s">
+        <v>29</v>
+      </c>
+      <c r="B25" s="23">
+        <v>10</v>
+      </c>
+    </row>
+    <row r="26" spans="1:2" x14ac:dyDescent="0.3">
+      <c r="A26" s="1" t="s">
+        <v>30</v>
+      </c>
+      <c r="B26" s="24">
+        <v>19.99</v>
+      </c>
+    </row>
+    <row r="27" spans="1:2" x14ac:dyDescent="0.3">
+      <c r="A27" s="1" t="s">
+        <v>31</v>
+      </c>
+      <c r="B27" s="25">
+        <v>34.78</v>
+      </c>
+    </row>
+    <row r="28" spans="1:2" x14ac:dyDescent="0.3">
+      <c r="A28" s="1" t="s">
+        <v>32</v>
+      </c>
+      <c r="B28" s="26" t="s">
+        <v>33</v>
+      </c>
+    </row>
+    <row r="30" spans="1:1" x14ac:dyDescent="0.3">
+      <c r="A30" s="1" t="s">
+        <v>34</v>
       </c>
     </row>
   </sheetData>

--- a/examples/XlsxPeasant_05_styles.xlsx
+++ b/examples/XlsxPeasant_05_styles.xlsx
@@ -649,7 +649,7 @@
 </file>
 
 <file path=xl/worksheets/sheet1.xml><?xml version="1.0" encoding="utf-8"?>
-<worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr2="http://schemas.microsoft.com/office/spreadsheetml/2015/revision2" xmlns:xr3="http://schemas.microsoft.com/office/spreadsheetml/2016/revision3" mc:Ignorable="x14ac xr xr2 xr3" xr:uid="{25907D95-7D2E-4A85-AAE0-BC9699941223}">
+<worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr2="http://schemas.microsoft.com/office/spreadsheetml/2015/revision2" xmlns:xr3="http://schemas.microsoft.com/office/spreadsheetml/2016/revision3" mc:Ignorable="x14ac xr xr2 xr3" xr:uid="{2B3DC8A2-FBC2-4244-AC9B-8D552EB88804}">
   <dimension ref="A1:G30"/>
   <sheetViews>
     <sheetView workbookViewId="0"/>

--- a/examples/XlsxPeasant_05_styles.xlsx
+++ b/examples/XlsxPeasant_05_styles.xlsx
@@ -24,7 +24,7 @@
 </file>
 
 <file path=xl/sharedStrings.xml><?xml version="1.0" encoding="utf-8"?>
-<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="35" uniqueCount="35">
+<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="43" uniqueCount="43">
   <si>
     <t>Change default settings</t>
   </si>
@@ -127,7 +127,16 @@
     <t>Predefined Styles</t>
   </si>
   <si>
-    <t>Courier New, 15, black, bold, italic, underline; Fill 68;114;196.</t>
+    <t>Courier New, 15, black, bold, italic, underline; Fill 68:114:196.</t>
+  </si>
+  <si>
+    <t>Courier New</t>
+  </si>
+  <si>
+    <t>19</t>
+  </si>
+  <si>
+    <t>green</t>
   </si>
   <si>
     <t>Formats</t>
@@ -149,6 +158,76 @@
   </si>
   <si>
     <t>hidden</t>
+  </si>
+  <si>
+    <t>Multipart cells</t>
+  </si>
+  <si>
+    <r>
+      <t xml:space="preserve">default </t>
+    </r>
+    <r>
+      <rPr>
+        <b/>
+        <sz val="19"/>
+        <color rgb="FFFF0000"/>
+        <rFont val="Times New Roman"/>
+        <family val="2"/>
+        <charset val="238"/>
+      </rPr>
+      <t>and now bold in one cell</t>
+    </r>
+  </si>
+  <si>
+    <r>
+      <t xml:space="preserve">small </t>
+    </r>
+    <r>
+      <rPr>
+        <b/>
+        <i/>
+        <u/>
+        <sz val="20"/>
+        <color rgb="FFFFA500"/>
+        <rFont val="Arial"/>
+        <family val="2"/>
+        <charset val="238"/>
+      </rPr>
+      <t>and now totaly different in one cell</t>
+    </r>
+  </si>
+  <si>
+    <r>
+      <t xml:space="preserve">italic </t>
+    </r>
+    <r>
+      <rPr>
+        <b/>
+        <i/>
+        <sz val="19"/>
+        <color rgb="FFFF0000"/>
+        <rFont val="Times New Roman"/>
+        <family val="2"/>
+        <charset val="238"/>
+      </rPr>
+      <t>and now also bold in one cell</t>
+    </r>
+  </si>
+  <si>
+    <r>
+      <t xml:space="preserve">two parts </t>
+    </r>
+    <r>
+      <rPr>
+        <i/>
+        <sz val="19"/>
+        <color rgb="FFFF0000"/>
+        <rFont val="Times New Roman"/>
+        <family val="2"/>
+        <charset val="238"/>
+      </rPr>
+      <t>no font diff</t>
+    </r>
   </si>
   <si>
     <t>This Cell is as defaults show.</t>
@@ -166,7 +245,7 @@
     <numFmt formatCode="#,##0.00\ &quot;%&quot; ;-#,##0.00\ &quot;%&quot; " numFmtId="4"/>
     <numFmt formatCode=";;;" numFmtId="5"/>
   </numFmts>
-  <fonts count="10" x14ac:knownFonts="1">
+  <fonts count="14" x14ac:knownFonts="1">
     <font>
       <sz val="19"/>
       <color rgb="FFFF0000"/>
@@ -250,6 +329,34 @@
       <sz val="15"/>
       <color rgb="FF000000"/>
       <name val="Courier New"/>
+      <family val="2"/>
+      <charset val="238"/>
+    </font>
+    <font>
+      <sz val="19"/>
+      <color rgb="FFFF0000"/>
+      <name val="Courier New"/>
+      <family val="2"/>
+      <charset val="238"/>
+    </font>
+    <font>
+      <sz val="19"/>
+      <color rgb="FFFF0000"/>
+      <name val="Times New Roman"/>
+      <family val="2"/>
+      <charset val="238"/>
+    </font>
+    <font>
+      <sz val="19"/>
+      <color rgb="FF008000"/>
+      <name val="Times New Roman"/>
+      <family val="2"/>
+      <charset val="238"/>
+    </font>
+    <font>
+      <sz val="10"/>
+      <color rgb="FFFF0000"/>
+      <name val="Times New Roman"/>
       <family val="2"/>
       <charset val="238"/>
     </font>
@@ -286,7 +393,7 @@
   <cellStyleXfs count="1">
     <xf numFmtId="0" fontId="0" fillId="0" borderId="0"/>
   </cellStyleXfs>
-  <cellXfs count="27">
+  <cellXfs count="31">
     <xf borderId="0" fillId="0" fontId="0" numFmtId="0" xfId="0"/>
     <xf applyFont="1" borderId="0" fillId="0" fontId="1" numFmtId="0" xfId="0"/>
     <xf applyAlignment="0" applyFill="1" applyFont="1" applyNumberFormat="0" borderId="0" fillId="2" fontId="1" numFmtId="0" xfId="0"/>
@@ -331,11 +438,15 @@
       <alignment wrapText="1"/>
     </xf>
     <xf applyAlignment="0" applyFill="1" applyFont="1" applyNumberFormat="0" borderId="0" fillId="3" fontId="9" numFmtId="0" xfId="0"/>
+    <xf applyAlignment="0" applyFill="0" applyFont="1" applyNumberFormat="0" borderId="0" fillId="0" fontId="10" numFmtId="0" xfId="0"/>
+    <xf applyAlignment="0" applyFill="0" applyFont="1" applyNumberFormat="0" borderId="0" fillId="0" fontId="11" numFmtId="0" xfId="0"/>
+    <xf applyAlignment="0" applyFill="0" applyFont="1" applyNumberFormat="0" borderId="0" fillId="0" fontId="12" numFmtId="0" xfId="0"/>
     <xf applyAlignment="0" applyFill="0" applyFont="1" applyNumberFormat="1" borderId="0" fillId="0" fontId="1" numFmtId="1" xfId="0"/>
     <xf applyAlignment="0" applyFill="0" applyFont="1" applyNumberFormat="1" borderId="0" fillId="0" fontId="1" numFmtId="2" xfId="0"/>
     <xf applyAlignment="0" applyFill="0" applyFont="1" applyNumberFormat="1" borderId="0" fillId="0" fontId="1" numFmtId="3" xfId="0"/>
     <xf applyAlignment="0" applyFill="0" applyFont="1" applyNumberFormat="1" borderId="0" fillId="0" fontId="1" numFmtId="4" xfId="0"/>
     <xf applyAlignment="0" applyFill="0" applyFont="1" applyNumberFormat="1" borderId="0" fillId="0" fontId="1" numFmtId="5" xfId="0"/>
+    <xf applyAlignment="0" applyFill="0" applyFont="1" applyNumberFormat="0" borderId="0" fillId="0" fontId="13" numFmtId="0" xfId="0"/>
   </cellXfs>
   <cellStyles count="1">
     <cellStyle name="Normalny" xfId="0" builtinId="0"/>
@@ -649,8 +760,8 @@
 </file>
 
 <file path=xl/worksheets/sheet1.xml><?xml version="1.0" encoding="utf-8"?>
-<worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr2="http://schemas.microsoft.com/office/spreadsheetml/2015/revision2" xmlns:xr3="http://schemas.microsoft.com/office/spreadsheetml/2016/revision3" mc:Ignorable="x14ac xr xr2 xr3" xr:uid="{2B3DC8A2-FBC2-4244-AC9B-8D552EB88804}">
-  <dimension ref="A1:G30"/>
+<worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr2="http://schemas.microsoft.com/office/spreadsheetml/2015/revision2" xmlns:xr3="http://schemas.microsoft.com/office/spreadsheetml/2016/revision3" mc:Ignorable="x14ac xr xr2 xr3" xr:uid="{69461211-1543-4F4B-9FBF-3A0BAB8D4DC4}">
+  <dimension ref="A1:G37"/>
   <sheetViews>
     <sheetView workbookViewId="0"/>
   </sheetViews>
@@ -772,54 +883,90 @@
         <v>26</v>
       </c>
     </row>
-    <row r="23" spans="1:1" x14ac:dyDescent="0.3">
-      <c r="A23" s="2" t="s">
+    <row r="22" spans="1:3" x14ac:dyDescent="0.3">
+      <c r="A22" s="22" t="s">
         <v>27</v>
       </c>
-    </row>
-    <row r="24" spans="1:2" x14ac:dyDescent="0.3">
-      <c r="A24" s="1" t="s">
+      <c r="B22" s="23" t="s">
         <v>28</v>
       </c>
-      <c r="B24" s="22">
-        <v>43466</v>
+      <c r="C22" s="24" t="s">
+        <v>29</v>
+      </c>
+    </row>
+    <row r="24" spans="1:1" x14ac:dyDescent="0.3">
+      <c r="A24" s="2" t="s">
+        <v>30</v>
       </c>
     </row>
     <row r="25" spans="1:2" x14ac:dyDescent="0.3">
       <c r="A25" s="1" t="s">
-        <v>29</v>
-      </c>
-      <c r="B25" s="23">
-        <v>10</v>
+        <v>31</v>
+      </c>
+      <c r="B25" s="25">
+        <v>43466</v>
       </c>
     </row>
     <row r="26" spans="1:2" x14ac:dyDescent="0.3">
       <c r="A26" s="1" t="s">
-        <v>30</v>
-      </c>
-      <c r="B26" s="24">
-        <v>19.99</v>
+        <v>32</v>
+      </c>
+      <c r="B26" s="26">
+        <v>10</v>
       </c>
     </row>
     <row r="27" spans="1:2" x14ac:dyDescent="0.3">
       <c r="A27" s="1" t="s">
-        <v>31</v>
-      </c>
-      <c r="B27" s="25">
-        <v>34.78</v>
+        <v>33</v>
+      </c>
+      <c r="B27" s="27">
+        <v>19.99</v>
       </c>
     </row>
     <row r="28" spans="1:2" x14ac:dyDescent="0.3">
       <c r="A28" s="1" t="s">
-        <v>32</v>
-      </c>
-      <c r="B28" s="26" t="s">
-        <v>33</v>
-      </c>
-    </row>
-    <row r="30" spans="1:1" x14ac:dyDescent="0.3">
-      <c r="A30" s="1" t="s">
         <v>34</v>
+      </c>
+      <c r="B28" s="28">
+        <v>34.78</v>
+      </c>
+    </row>
+    <row r="29" spans="1:2" x14ac:dyDescent="0.3">
+      <c r="A29" s="1" t="s">
+        <v>35</v>
+      </c>
+      <c r="B29" s="29" t="s">
+        <v>36</v>
+      </c>
+    </row>
+    <row r="31" spans="1:1" x14ac:dyDescent="0.3">
+      <c r="A31" s="2" t="s">
+        <v>37</v>
+      </c>
+    </row>
+    <row r="32" spans="1:1" x14ac:dyDescent="0.3">
+      <c r="A32" s="1" t="s">
+        <v>38</v>
+      </c>
+    </row>
+    <row r="33" spans="1:1" x14ac:dyDescent="0.3">
+      <c r="A33" s="30" t="s">
+        <v>39</v>
+      </c>
+    </row>
+    <row r="34" spans="1:1" x14ac:dyDescent="0.3">
+      <c r="A34" s="13" t="s">
+        <v>40</v>
+      </c>
+    </row>
+    <row r="35" spans="1:1" x14ac:dyDescent="0.3">
+      <c r="A35" s="13" t="s">
+        <v>41</v>
+      </c>
+    </row>
+    <row r="37" spans="1:1" x14ac:dyDescent="0.3">
+      <c r="A37" s="1" t="s">
+        <v>42</v>
       </c>
     </row>
   </sheetData>

--- a/examples/XlsxPeasant_05_styles.xlsx
+++ b/examples/XlsxPeasant_05_styles.xlsx
@@ -230,7 +230,7 @@
     </r>
   </si>
   <si>
-    <t>This Cell is as defaults show.</t>
+    <t>This Cell is as defaults show but row has more height.</t>
   </si>
 </sst>
 </file>
@@ -760,12 +760,15 @@
 </file>
 
 <file path=xl/worksheets/sheet1.xml><?xml version="1.0" encoding="utf-8"?>
-<worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr2="http://schemas.microsoft.com/office/spreadsheetml/2015/revision2" xmlns:xr3="http://schemas.microsoft.com/office/spreadsheetml/2016/revision3" mc:Ignorable="x14ac xr xr2 xr3" xr:uid="{69461211-1543-4F4B-9FBF-3A0BAB8D4DC4}">
+<worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr2="http://schemas.microsoft.com/office/spreadsheetml/2015/revision2" xmlns:xr3="http://schemas.microsoft.com/office/spreadsheetml/2016/revision3" mc:Ignorable="x14ac xr xr2 xr3" xr:uid="{C19439BD-7D9E-4CC7-85DA-8746E7A2BC34}">
   <dimension ref="A1:G37"/>
   <sheetViews>
     <sheetView workbookViewId="0"/>
   </sheetViews>
   <sheetFormatPr defaultRowHeight="14.4" x14ac:dyDescent="0.3"/>
+  <cols>
+    <col customWidth="1" max="1" min="1" width="22"/>
+  </cols>
   <sheetData>
     <row r="1" spans="1:1" x14ac:dyDescent="0.3">
       <c r="A1" s="2" t="s">
@@ -964,7 +967,7 @@
         <v>41</v>
       </c>
     </row>
-    <row r="37" spans="1:1" x14ac:dyDescent="0.3">
+    <row r="37" spans="1:1" x14ac:dyDescent="0.3" customHeight="1" ht="34">
       <c r="A37" s="1" t="s">
         <v>42</v>
       </c>

--- a/examples/XlsxPeasant_05_styles.xlsx
+++ b/examples/XlsxPeasant_05_styles.xlsx
@@ -760,7 +760,7 @@
 </file>
 
 <file path=xl/worksheets/sheet1.xml><?xml version="1.0" encoding="utf-8"?>
-<worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr2="http://schemas.microsoft.com/office/spreadsheetml/2015/revision2" xmlns:xr3="http://schemas.microsoft.com/office/spreadsheetml/2016/revision3" mc:Ignorable="x14ac xr xr2 xr3" xr:uid="{C19439BD-7D9E-4CC7-85DA-8746E7A2BC34}">
+<worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr2="http://schemas.microsoft.com/office/spreadsheetml/2015/revision2" xmlns:xr3="http://schemas.microsoft.com/office/spreadsheetml/2016/revision3" mc:Ignorable="x14ac xr xr2 xr3" xr:uid="{8D87DEEA-3EAC-4537-9AA1-03E63A32E616}">
   <dimension ref="A1:G37"/>
   <sheetViews>
     <sheetView workbookViewId="0"/>

--- a/examples/XlsxPeasant_05_styles.xlsx
+++ b/examples/XlsxPeasant_05_styles.xlsx
@@ -760,7 +760,7 @@
 </file>
 
 <file path=xl/worksheets/sheet1.xml><?xml version="1.0" encoding="utf-8"?>
-<worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr2="http://schemas.microsoft.com/office/spreadsheetml/2015/revision2" xmlns:xr3="http://schemas.microsoft.com/office/spreadsheetml/2016/revision3" mc:Ignorable="x14ac xr xr2 xr3" xr:uid="{8D87DEEA-3EAC-4537-9AA1-03E63A32E616}">
+<worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr2="http://schemas.microsoft.com/office/spreadsheetml/2015/revision2" xmlns:xr3="http://schemas.microsoft.com/office/spreadsheetml/2016/revision3" mc:Ignorable="x14ac xr xr2 xr3" xr:uid="{82C8F3D1-BAB7-446C-9A5C-2A5AE94ECBBA}">
   <dimension ref="A1:G37"/>
   <sheetViews>
     <sheetView workbookViewId="0"/>
